--- a/biology/Botanique/Callistemon/Callistemon.xlsx
+++ b/biology/Botanique/Callistemon/Callistemon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Callistemon comprend 34 espèces de buissons de la famille des Myrtaceae. La majorité de ces espèces est endémique d'Australie ; quatre espèces se rencontrent aussi en Nouvelle-Calédonie. Ce genre est un synonyme, il est maintenant regroupé dans le genre Melaleuca qui comporte donc plus de 380 espèces.
 Le nom provient des noms grecs κάλλος, callos, « beauté » et στήμων, stemon, « étamine ». On leur donne le surnom de « rince-bouteille » à cause de l'aspect cylindrique et en brosse des fleurs sur la tige qui évoquent des écouvillons. On les trouve dans les régions tempérées de l'Australie surtout sur les côtes est et sud-ouest. Généralement, ils apprécient un arrosage régulier lorsqu'on les cultive mais certaines espèces sont résistantes à la sécheresse.
@@ -512,7 +524,9 @@
           <t>Principales espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Callistemon acuminatus Cheel
 Callistemon brachyandrus
